--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RH\Desktop\Eduardo\Datamining\Proyecto1-Mineria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916430B5-77AD-4B7F-99BE-C3E35D2D831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2029FF-BEB9-49C5-90D5-BE9675F58616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="987">
   <si>
     <t>Valor</t>
   </si>
@@ -2943,12 +2943,6 @@
     <t>Cantidad de extranjeros registrados en Guatemala</t>
   </si>
   <si>
-    <t>Matrimonios mas longedos de edad</t>
-  </si>
-  <si>
-    <t>Cantidad de bodas por año</t>
-  </si>
-  <si>
     <t>Mes con mas bodas</t>
   </si>
   <si>
@@ -2998,6 +2992,9 @@
   </si>
   <si>
     <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Diferencia de edades entre parejas de un matrimonio</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3116,6 +3113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3155,7 +3158,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3254,6 +3257,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3605,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1145"/>
   <sheetViews>
-    <sheetView topLeftCell="A637" workbookViewId="0">
+    <sheetView topLeftCell="A617" workbookViewId="0">
       <selection activeCell="G1130" sqref="G1130"/>
     </sheetView>
   </sheetViews>
@@ -14189,7 +14193,7 @@
         <v>940</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -14214,7 +14218,7 @@
         <v>942</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -14273,18 +14277,18 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14295,18 +14299,18 @@
         <v>967</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="42" t="s">
         <v>968</v>
       </c>
       <c r="C3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -14314,10 +14318,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14325,10 +14329,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="C5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -14336,10 +14340,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -14347,10 +14351,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14358,10 +14362,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D8" s="30"/>
     </row>
@@ -14370,10 +14374,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="G9" s="30"/>
     </row>
@@ -14382,10 +14386,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -14393,10 +14397,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F11" s="30"/>
     </row>
@@ -14405,10 +14409,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14416,10 +14420,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -14427,10 +14431,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -14438,10 +14442,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -14449,10 +14453,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -14460,10 +14464,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavih\OneDrive\Documentos\GitHub\Proyecto1-Mineria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA296B57-0AC5-4938-8D1A-35937551B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FE73F4-31FD-4DFF-BFE6-0985FC00BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="992">
   <si>
     <t>Valor</t>
   </si>
@@ -3003,7 +3003,13 @@
     <t>Pocentaje de etnias por año</t>
   </si>
   <si>
-    <t>Cantidad de bodas entre las mismas etnias</t>
+    <t>Cantidad de hombres que pertenecen a cada etnia</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que pertenecen a cada etnia</t>
+  </si>
+  <si>
+    <t>Porcentaje de bodas entre misma etnia</t>
   </si>
 </sst>
 </file>
@@ -3625,7 +3631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1145"/>
   <sheetViews>
-    <sheetView topLeftCell="A617" workbookViewId="0">
+    <sheetView topLeftCell="A541" workbookViewId="0">
       <selection activeCell="G1130" sqref="G1130"/>
     </sheetView>
   </sheetViews>
@@ -13987,6 +13993,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A383:A386"/>
+    <mergeCell ref="A387:A390"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="A25:A364"/>
+    <mergeCell ref="A365:A376"/>
+    <mergeCell ref="A379:A382"/>
+    <mergeCell ref="A377:A378"/>
     <mergeCell ref="A1102:A1132"/>
     <mergeCell ref="A1133:A1144"/>
     <mergeCell ref="A391:A470"/>
@@ -14001,14 +14015,6 @@
     <mergeCell ref="A608:A647"/>
     <mergeCell ref="A648:A654"/>
     <mergeCell ref="A705:A739"/>
-    <mergeCell ref="A383:A386"/>
-    <mergeCell ref="A387:A390"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A24"/>
-    <mergeCell ref="A25:A364"/>
-    <mergeCell ref="A365:A376"/>
-    <mergeCell ref="A379:A382"/>
-    <mergeCell ref="A377:A378"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14019,8 +14025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF343BA-6790-4EF6-9D20-1851401D7388}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14290,7 +14296,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912A6E82-35C7-4C6F-9C33-7AAC616CEFA9}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14473,36 +14479,58 @@
         <v>985</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>19</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>20</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>985</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>988</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>991</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>985</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
